--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,12 +8,13 @@
     <sheet name="sample" sheetId="1" r:id="rId4"/>
     <sheet name="sample_x2" sheetId="2" r:id="rId5"/>
     <sheet name="sample_x3" sheetId="3" r:id="rId6"/>
+    <sheet name="encouraging_list" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>表1</t>
   </si>
@@ -319,6 +320,192 @@
   </si>
   <si>
     <t xml:space="preserve">I’m filling a hole in my life with wine and food… </t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>I’m so proud of you!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>I’ll support you either way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>I’m behind you 100%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>Believe in yourself.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>Do the impossible.</t>
+    </r>
+  </si>
+  <si>
+    <t>KEEP UP THE GOOD WORK!</t>
+  </si>
+  <si>
+    <t>THAT’S A REAL IMPROVEMENT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YOU’VE REALLY IMPROVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YOU’RE ON THE RIGHT TRACK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YOU’VE ALMOST GOT IT.</t>
+  </si>
+  <si>
+    <t>DON’T GIVE UP!</t>
+  </si>
+  <si>
+    <t>COME ON, YOU CAN DO IT!</t>
+  </si>
+  <si>
+    <t>GIVE IT YOUR BEST SHOT.</t>
+  </si>
+  <si>
+    <t>WHAT HAVE YOU GOT TO LOSE?</t>
+  </si>
+  <si>
+    <t>NICE JOB! I’M IMPRESSED!</t>
+  </si>
+  <si>
+    <t>You have the best style.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I like your new haircut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re a fantastic man.
+</t>
+  </si>
+  <si>
+    <t>You’re almost there!</t>
+  </si>
+  <si>
+    <t>You’ve made it this far.</t>
+  </si>
+  <si>
+    <t>You are improving a lot.</t>
+  </si>
+  <si>
+    <t>I can tell you worked really hard on your life.</t>
+  </si>
+  <si>
+    <t>I’m on your side.</t>
+  </si>
+  <si>
+    <t>Good job.</t>
+  </si>
+  <si>
+    <t>It doesn’t matter how slowly you go as long as you do not stop.</t>
+  </si>
+  <si>
+    <t>I just need you to be next to me.</t>
+  </si>
+  <si>
+    <t>You are just a newborn star. You are a star about to shine.</t>
+  </si>
+  <si>
+    <t>You're sweet.</t>
+  </si>
+  <si>
+    <t>It's okay to live more comfortably.</t>
+  </si>
+  <si>
+    <t>What you are now is the evolution of tomorrow.</t>
+  </si>
+  <si>
+    <t>Let's try it again together.</t>
+  </si>
+  <si>
+    <t>Don't make your own assessment of yourself.</t>
+  </si>
+  <si>
+    <t>Have you noticed? Your loved ones will be happy just because you're here.</t>
+  </si>
+  <si>
+    <t>I'm far away, but I'll be thinking of you.</t>
+  </si>
+  <si>
+    <t>It's okay. Calm down. There's enough room for you to take a deep breath.</t>
+  </si>
+  <si>
+    <t>It doesn't matter if you go slow. If that's the speed that suits you.</t>
+  </si>
+  <si>
+    <t>There are things you can do that only you can do.</t>
+  </si>
+  <si>
+    <t>You don't have to be so uptight. You've already worked hard enough.</t>
+  </si>
+  <si>
+    <t>I know you're working hard.</t>
+  </si>
+  <si>
+    <t>You're not wrong.</t>
+  </si>
+  <si>
+    <t>You're not supposed to have powers like that.</t>
+  </si>
+  <si>
+    <t>The fruits of your labors, how could they not shine?</t>
+  </si>
+  <si>
+    <t>You have taken a new step forward. It's time to say goodbye to the past.</t>
+  </si>
+  <si>
+    <t>Everything will come at the right time for you.</t>
+  </si>
+  <si>
+    <t>You've suffered enough.</t>
+  </si>
+  <si>
+    <t>It won't be long before something wonderful happens to you.</t>
+  </si>
+  <si>
+    <t>The place to go is here.</t>
+  </si>
+  <si>
+    <t>It's hard to be confident. But you can believe in yourself.</t>
+  </si>
+  <si>
+    <t>A life of detours and gains.</t>
   </si>
 </sst>
 </file>
@@ -328,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -350,8 +537,23 @@
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +572,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -407,6 +615,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -418,6 +657,31 @@
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -450,13 +714,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -469,31 +824,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,6 +915,9 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff292b2c"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1579,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1587,7 +1987,8 @@
   <cols>
     <col min="1" max="1" width="70.6016" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="3" max="5" width="19.6016" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -1595,798 +1996,1098 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="A2" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" ht="27" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="27" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="27" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="A11" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="39" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="A15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="27" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="10">
-        <v>0</v>
-      </c>
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B40" s="10">
-        <v>0</v>
-      </c>
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="10">
-        <v>0</v>
-      </c>
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B43" s="10">
-        <v>0</v>
-      </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B44" s="10">
-        <v>0</v>
-      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B45" s="10">
-        <v>0</v>
-      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B46" s="10">
-        <v>0</v>
-      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B47" s="10">
-        <v>0</v>
-      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B48" s="10">
-        <v>0</v>
-      </c>
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B49" s="10">
-        <v>0</v>
-      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
+      <c r="B51" s="16">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B52" s="10">
-        <v>1</v>
-      </c>
+      <c r="B52" s="16">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B53" s="10">
-        <v>1</v>
-      </c>
+      <c r="B53" s="16">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
+      <c r="B54" s="16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
+      <c r="B55" s="16">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B57" s="10">
-        <v>1</v>
-      </c>
+      <c r="B57" s="16">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B58" s="10">
-        <v>1</v>
-      </c>
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B60" s="10">
-        <v>1</v>
-      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B61" s="10">
-        <v>1</v>
-      </c>
+      <c r="B61" s="16">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B62" s="10">
-        <v>1</v>
-      </c>
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B63" s="10">
-        <v>1</v>
-      </c>
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B64" s="10">
-        <v>1</v>
-      </c>
+      <c r="B64" s="16">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B65" s="10">
-        <v>1</v>
-      </c>
+      <c r="B65" s="16">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="A66" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B66" s="10">
-        <v>1</v>
-      </c>
+      <c r="B66" s="16">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="A67" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
+      <c r="B67" s="16">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="A68" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
+      <c r="B68" s="16">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="A69" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B69" s="10">
-        <v>1</v>
-      </c>
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="A70" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B70" s="10">
-        <v>1</v>
-      </c>
+      <c r="B70" s="16">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="A71" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
+      <c r="B71" s="16">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="A72" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B72" s="10">
-        <v>1</v>
-      </c>
+      <c r="B72" s="16">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="A73" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B73" s="10">
-        <v>1</v>
-      </c>
+      <c r="B73" s="16">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="A74" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
+      <c r="B74" s="16">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="A75" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B75" s="10">
-        <v>1</v>
-      </c>
+      <c r="B75" s="16">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="A76" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B76" s="10">
-        <v>1</v>
-      </c>
+      <c r="B76" s="16">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B77" s="10">
-        <v>1</v>
-      </c>
+      <c r="B77" s="16">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="A78" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B78" s="10">
-        <v>1</v>
-      </c>
+      <c r="B78" s="16">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="A79" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B79" s="10">
-        <v>1</v>
-      </c>
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="A80" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B80" s="10">
-        <v>1</v>
-      </c>
+      <c r="B80" s="16">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="A81" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="A82" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B82" s="10">
-        <v>1</v>
-      </c>
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="A83" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B83" s="10">
-        <v>1</v>
-      </c>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="A84" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B84" s="10">
-        <v>1</v>
-      </c>
+      <c r="B84" s="16">
+        <v>1</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="A85" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B85" s="10">
-        <v>1</v>
-      </c>
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B86" s="10">
-        <v>1</v>
-      </c>
+      <c r="B86" s="16">
+        <v>1</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="A87" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B87" s="10">
-        <v>1</v>
-      </c>
+      <c r="B87" s="16">
+        <v>1</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B88" s="10">
-        <v>1</v>
-      </c>
+      <c r="B88" s="16">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="A89" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B89" s="10">
-        <v>1</v>
-      </c>
+      <c r="B89" s="16">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="A90" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B90" s="10">
-        <v>1</v>
-      </c>
+      <c r="B90" s="16">
+        <v>1</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="A91" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
+      <c r="B91" s="16">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="A92" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
+      <c r="B92" s="16">
+        <v>1</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="A93" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B93" s="10">
-        <v>1</v>
-      </c>
+      <c r="B93" s="16">
+        <v>1</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="A94" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B94" s="10">
-        <v>1</v>
-      </c>
+      <c r="B94" s="16">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="7">
+      <c r="A95" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B95" s="10">
-        <v>1</v>
-      </c>
+      <c r="B95" s="16">
+        <v>1</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" t="s" s="7">
+      <c r="A96" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
+      <c r="B96" s="16">
+        <v>1</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="7">
+      <c r="A97" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
+      <c r="B97" s="16">
+        <v>1</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" t="s" s="7">
+      <c r="A98" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B98" s="10">
-        <v>1</v>
-      </c>
+      <c r="B98" s="16">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" t="s" s="7">
+      <c r="A99" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B99" s="10">
-        <v>1</v>
-      </c>
+      <c r="B99" s="16">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="7">
+      <c r="A100" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="B100" s="10">
-        <v>1</v>
-      </c>
+      <c r="B100" s="16">
+        <v>1</v>
+      </c>
+      <c r="C100" s="17"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2402,15 +3103,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="70.6016" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.8125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="19.6016" style="11" customWidth="1"/>
+    <col min="1" max="1" width="70.6016" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.8125" style="20" customWidth="1"/>
+    <col min="3" max="5" width="19.6016" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -2418,1582 +3120,2176 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="A2" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" ht="27" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="27" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="27" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="A11" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="39" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="A15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="27" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="10">
-        <v>0</v>
-      </c>
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B40" s="10">
-        <v>0</v>
-      </c>
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="10">
-        <v>0</v>
-      </c>
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B43" s="10">
-        <v>0</v>
-      </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B44" s="10">
-        <v>0</v>
-      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B45" s="10">
-        <v>0</v>
-      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B46" s="10">
-        <v>0</v>
-      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B47" s="10">
-        <v>0</v>
-      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B48" s="10">
-        <v>0</v>
-      </c>
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B49" s="10">
-        <v>0</v>
-      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
+      <c r="B51" s="16">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B52" s="10">
-        <v>1</v>
-      </c>
+      <c r="B52" s="16">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B53" s="10">
-        <v>1</v>
-      </c>
+      <c r="B53" s="16">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
+      <c r="B54" s="16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
+      <c r="B55" s="16">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B57" s="10">
-        <v>1</v>
-      </c>
+      <c r="B57" s="16">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B58" s="10">
-        <v>1</v>
-      </c>
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B60" s="10">
-        <v>1</v>
-      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B61" s="10">
-        <v>1</v>
-      </c>
+      <c r="B61" s="16">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B62" s="10">
-        <v>1</v>
-      </c>
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B63" s="10">
-        <v>1</v>
-      </c>
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B64" s="10">
-        <v>1</v>
-      </c>
+      <c r="B64" s="16">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B65" s="10">
-        <v>1</v>
-      </c>
+      <c r="B65" s="16">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="A66" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B66" s="10">
-        <v>1</v>
-      </c>
+      <c r="B66" s="16">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="A67" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
+      <c r="B67" s="16">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="A68" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
+      <c r="B68" s="16">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="A69" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B69" s="10">
-        <v>1</v>
-      </c>
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="A70" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B70" s="10">
-        <v>1</v>
-      </c>
+      <c r="B70" s="16">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="A71" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
+      <c r="B71" s="16">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="A72" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B72" s="10">
-        <v>1</v>
-      </c>
+      <c r="B72" s="16">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="A73" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B73" s="10">
-        <v>1</v>
-      </c>
+      <c r="B73" s="16">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="A74" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
+      <c r="B74" s="16">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="A75" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B75" s="10">
-        <v>1</v>
-      </c>
+      <c r="B75" s="16">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="A76" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B76" s="10">
-        <v>1</v>
-      </c>
+      <c r="B76" s="16">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B77" s="10">
-        <v>1</v>
-      </c>
+      <c r="B77" s="16">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="A78" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B78" s="10">
-        <v>1</v>
-      </c>
+      <c r="B78" s="16">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="A79" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B79" s="10">
-        <v>1</v>
-      </c>
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="A80" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B80" s="10">
-        <v>1</v>
-      </c>
+      <c r="B80" s="16">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="A81" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="A82" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B82" s="10">
-        <v>1</v>
-      </c>
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="A83" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B83" s="10">
-        <v>1</v>
-      </c>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="A84" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B84" s="10">
-        <v>1</v>
-      </c>
+      <c r="B84" s="16">
+        <v>1</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="A85" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B85" s="10">
-        <v>1</v>
-      </c>
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B86" s="10">
-        <v>1</v>
-      </c>
+      <c r="B86" s="16">
+        <v>1</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="A87" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B87" s="10">
-        <v>1</v>
-      </c>
+      <c r="B87" s="16">
+        <v>1</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B88" s="10">
-        <v>1</v>
-      </c>
+      <c r="B88" s="16">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="A89" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B89" s="10">
-        <v>1</v>
-      </c>
+      <c r="B89" s="16">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="A90" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B90" s="10">
-        <v>1</v>
-      </c>
+      <c r="B90" s="16">
+        <v>1</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="A91" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
+      <c r="B91" s="16">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="A92" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
+      <c r="B92" s="16">
+        <v>1</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="A93" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B93" s="10">
-        <v>1</v>
-      </c>
+      <c r="B93" s="16">
+        <v>1</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="A94" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B94" s="10">
-        <v>1</v>
-      </c>
+      <c r="B94" s="16">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="7">
+      <c r="A95" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B95" s="10">
-        <v>1</v>
-      </c>
+      <c r="B95" s="16">
+        <v>1</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" t="s" s="7">
+      <c r="A96" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
+      <c r="B96" s="16">
+        <v>1</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="7">
+      <c r="A97" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
+      <c r="B97" s="16">
+        <v>1</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" t="s" s="7">
+      <c r="A98" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B98" s="10">
-        <v>1</v>
-      </c>
+      <c r="B98" s="16">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" t="s" s="7">
+      <c r="A99" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B99" s="10">
-        <v>1</v>
-      </c>
+      <c r="B99" s="16">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="A100" t="s" s="15">
         <v>100</v>
       </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
+      <c r="B100" s="14">
+        <v>1</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" t="s" s="5">
+      <c r="A101" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B101" s="6">
-        <v>0</v>
-      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" t="s" s="7">
+      <c r="A102" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" t="s" s="7">
+      <c r="A103" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B103" s="6">
-        <v>0</v>
-      </c>
+      <c r="B103" s="12">
+        <v>0</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" t="s" s="9">
+      <c r="A104" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B104" s="10">
-        <v>0</v>
-      </c>
+      <c r="B104" s="16">
+        <v>0</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B105" s="10">
-        <v>0</v>
-      </c>
+      <c r="B105" s="16">
+        <v>0</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" t="s" s="7">
+      <c r="A106" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B106" s="8">
-        <v>0</v>
-      </c>
+      <c r="B106" s="14">
+        <v>0</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="s" s="7">
+      <c r="A107" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B107" s="6">
-        <v>0</v>
-      </c>
+      <c r="B107" s="12">
+        <v>0</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="10"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" t="s" s="9">
+      <c r="A108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B108" s="10">
-        <v>0</v>
-      </c>
+      <c r="B108" s="16">
+        <v>0</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" t="s" s="5">
+      <c r="A109" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B109" s="10">
-        <v>0</v>
-      </c>
+      <c r="B109" s="16">
+        <v>0</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" t="s" s="7">
+      <c r="A110" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B110" s="8">
-        <v>0</v>
-      </c>
+      <c r="B110" s="14">
+        <v>0</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" t="s" s="7">
+      <c r="A111" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B111" s="6">
-        <v>0</v>
-      </c>
+      <c r="B111" s="12">
+        <v>0</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" t="s" s="9">
+      <c r="A112" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B112" s="10">
-        <v>0</v>
-      </c>
+      <c r="B112" s="16">
+        <v>0</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" t="s" s="5">
+      <c r="A113" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B113" s="10">
-        <v>0</v>
-      </c>
+      <c r="B113" s="16">
+        <v>0</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" t="s" s="7">
+      <c r="A114" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B114" s="8">
-        <v>0</v>
-      </c>
+      <c r="B114" s="14">
+        <v>0</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" t="s" s="7">
+      <c r="A115" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B115" s="6">
-        <v>0</v>
-      </c>
+      <c r="B115" s="12">
+        <v>0</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" t="s" s="7">
+      <c r="A116" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B116" s="10">
-        <v>0</v>
-      </c>
+      <c r="B116" s="16">
+        <v>0</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="10"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" t="s" s="7">
+      <c r="A117" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B117" s="10">
-        <v>0</v>
-      </c>
+      <c r="B117" s="16">
+        <v>0</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" t="s" s="7">
+      <c r="A118" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B118" s="10">
-        <v>0</v>
-      </c>
+      <c r="B118" s="16">
+        <v>0</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" t="s" s="7">
+      <c r="A119" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B119" s="10">
-        <v>0</v>
-      </c>
+      <c r="B119" s="16">
+        <v>0</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" t="s" s="7">
+      <c r="A120" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B120" s="10">
-        <v>0</v>
-      </c>
+      <c r="B120" s="16">
+        <v>0</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" t="s" s="7">
+      <c r="A121" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B121" s="10">
-        <v>0</v>
-      </c>
+      <c r="B121" s="16">
+        <v>0</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" t="s" s="7">
+      <c r="A122" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B122" s="10">
-        <v>0</v>
-      </c>
+      <c r="B122" s="16">
+        <v>0</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" t="s" s="7">
+      <c r="A123" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B123" s="10">
-        <v>0</v>
-      </c>
+      <c r="B123" s="16">
+        <v>0</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" t="s" s="7">
+      <c r="A124" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B124" s="10">
-        <v>0</v>
-      </c>
+      <c r="B124" s="16">
+        <v>0</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" t="s" s="7">
+      <c r="A125" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B125" s="10">
-        <v>0</v>
-      </c>
+      <c r="B125" s="16">
+        <v>0</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" t="s" s="7">
+      <c r="A126" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B126" s="10">
-        <v>0</v>
-      </c>
+      <c r="B126" s="16">
+        <v>0</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="7">
+      <c r="A127" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B127" s="10">
-        <v>0</v>
-      </c>
+      <c r="B127" s="16">
+        <v>0</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" t="s" s="7">
+      <c r="A128" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B128" s="10">
-        <v>0</v>
-      </c>
+      <c r="B128" s="16">
+        <v>0</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" t="s" s="7">
+      <c r="A129" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B129" s="10">
-        <v>0</v>
-      </c>
+      <c r="B129" s="16">
+        <v>0</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="s" s="7">
+      <c r="A130" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B130" s="10">
-        <v>0</v>
-      </c>
+      <c r="B130" s="16">
+        <v>0</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" t="s" s="7">
+      <c r="A131" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B131" s="10">
-        <v>0</v>
-      </c>
+      <c r="B131" s="16">
+        <v>0</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="s" s="7">
+      <c r="A132" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B132" s="10">
-        <v>0</v>
-      </c>
+      <c r="B132" s="16">
+        <v>0</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="10"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="s" s="7">
+      <c r="A133" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B133" s="10">
-        <v>0</v>
-      </c>
+      <c r="B133" s="16">
+        <v>0</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" t="s" s="7">
+      <c r="A134" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B134" s="10">
-        <v>0</v>
-      </c>
+      <c r="B134" s="16">
+        <v>0</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" t="s" s="7">
+      <c r="A135" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B135" s="10">
-        <v>0</v>
-      </c>
+      <c r="B135" s="16">
+        <v>0</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" t="s" s="7">
+      <c r="A136" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B136" s="10">
-        <v>0</v>
-      </c>
+      <c r="B136" s="16">
+        <v>0</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" t="s" s="7">
+      <c r="A137" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B137" s="10">
-        <v>0</v>
-      </c>
+      <c r="B137" s="16">
+        <v>0</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="A138" t="s" s="7">
+      <c r="A138" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B138" s="10">
-        <v>0</v>
-      </c>
+      <c r="B138" s="16">
+        <v>0</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" t="s" s="7">
+      <c r="A139" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B139" s="10">
-        <v>0</v>
-      </c>
+      <c r="B139" s="16">
+        <v>0</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" t="s" s="7">
+      <c r="A140" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B140" s="10">
-        <v>0</v>
-      </c>
+      <c r="B140" s="16">
+        <v>0</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" t="s" s="7">
+      <c r="A141" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B141" s="10">
-        <v>0</v>
-      </c>
+      <c r="B141" s="16">
+        <v>0</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" t="s" s="7">
+      <c r="A142" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B142" s="10">
-        <v>0</v>
-      </c>
+      <c r="B142" s="16">
+        <v>0</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="A143" t="s" s="7">
+      <c r="A143" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B143" s="10">
-        <v>0</v>
-      </c>
+      <c r="B143" s="16">
+        <v>0</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="s" s="7">
+      <c r="A144" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B144" s="10">
-        <v>0</v>
-      </c>
+      <c r="B144" s="16">
+        <v>0</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="s" s="7">
+      <c r="A145" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B145" s="10">
-        <v>0</v>
-      </c>
+      <c r="B145" s="16">
+        <v>0</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="s" s="7">
+      <c r="A146" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B146" s="10">
-        <v>0</v>
-      </c>
+      <c r="B146" s="16">
+        <v>0</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="s" s="7">
+      <c r="A147" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B147" s="10">
-        <v>0</v>
-      </c>
+      <c r="B147" s="16">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="s" s="7">
+      <c r="A148" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B148" s="10">
-        <v>0</v>
-      </c>
+      <c r="B148" s="16">
+        <v>0</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="s" s="7">
+      <c r="A149" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B149" s="10">
-        <v>1</v>
-      </c>
+      <c r="B149" s="16">
+        <v>1</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="s" s="7">
+      <c r="A150" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B150" s="10">
-        <v>1</v>
-      </c>
+      <c r="B150" s="16">
+        <v>1</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" ht="15" customHeight="1">
-      <c r="A151" t="s" s="7">
+      <c r="A151" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B151" s="10">
-        <v>1</v>
-      </c>
+      <c r="B151" s="16">
+        <v>1</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="A152" t="s" s="7">
+      <c r="A152" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B152" s="10">
-        <v>1</v>
-      </c>
+      <c r="B152" s="16">
+        <v>1</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" ht="15" customHeight="1">
-      <c r="A153" t="s" s="7">
+      <c r="A153" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B153" s="10">
-        <v>1</v>
-      </c>
+      <c r="B153" s="16">
+        <v>1</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" t="s" s="7">
+      <c r="A154" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B154" s="10">
-        <v>1</v>
-      </c>
+      <c r="B154" s="16">
+        <v>1</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="A155" t="s" s="7">
+      <c r="A155" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B155" s="10">
-        <v>1</v>
-      </c>
+      <c r="B155" s="16">
+        <v>1</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="s" s="7">
+      <c r="A156" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B156" s="10">
-        <v>1</v>
-      </c>
+      <c r="B156" s="16">
+        <v>1</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="s" s="7">
+      <c r="A157" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B157" s="10">
-        <v>1</v>
-      </c>
+      <c r="B157" s="16">
+        <v>1</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="s" s="7">
+      <c r="A158" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B158" s="10">
-        <v>1</v>
-      </c>
+      <c r="B158" s="16">
+        <v>1</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" ht="15" customHeight="1">
-      <c r="A159" t="s" s="7">
+      <c r="A159" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B159" s="10">
-        <v>1</v>
-      </c>
+      <c r="B159" s="16">
+        <v>1</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="A160" t="s" s="7">
+      <c r="A160" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B160" s="10">
-        <v>1</v>
-      </c>
+      <c r="B160" s="16">
+        <v>1</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="A161" t="s" s="7">
+      <c r="A161" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B161" s="10">
-        <v>1</v>
-      </c>
+      <c r="B161" s="16">
+        <v>1</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" ht="15" customHeight="1">
-      <c r="A162" t="s" s="7">
+      <c r="A162" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B162" s="10">
-        <v>1</v>
-      </c>
+      <c r="B162" s="16">
+        <v>1</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" ht="15" customHeight="1">
-      <c r="A163" t="s" s="7">
+      <c r="A163" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B163" s="10">
-        <v>1</v>
-      </c>
+      <c r="B163" s="16">
+        <v>1</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="s" s="7">
+      <c r="A164" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B164" s="10">
-        <v>1</v>
-      </c>
+      <c r="B164" s="16">
+        <v>1</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="s" s="7">
+      <c r="A165" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B165" s="10">
-        <v>1</v>
-      </c>
+      <c r="B165" s="16">
+        <v>1</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="s" s="7">
+      <c r="A166" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B166" s="10">
-        <v>1</v>
-      </c>
+      <c r="B166" s="16">
+        <v>1</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="s" s="7">
+      <c r="A167" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B167" s="10">
-        <v>1</v>
-      </c>
+      <c r="B167" s="16">
+        <v>1</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="s" s="7">
+      <c r="A168" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B168" s="10">
-        <v>1</v>
-      </c>
+      <c r="B168" s="16">
+        <v>1</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="s" s="7">
+      <c r="A169" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B169" s="10">
-        <v>1</v>
-      </c>
+      <c r="B169" s="16">
+        <v>1</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="s" s="7">
+      <c r="A170" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B170" s="10">
-        <v>1</v>
-      </c>
+      <c r="B170" s="16">
+        <v>1</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="s" s="7">
+      <c r="A171" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B171" s="10">
-        <v>1</v>
-      </c>
+      <c r="B171" s="16">
+        <v>1</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="s" s="7">
+      <c r="A172" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B172" s="10">
-        <v>1</v>
-      </c>
+      <c r="B172" s="16">
+        <v>1</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="s" s="7">
+      <c r="A173" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B173" s="10">
-        <v>1</v>
-      </c>
+      <c r="B173" s="16">
+        <v>1</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="s" s="7">
+      <c r="A174" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B174" s="10">
-        <v>1</v>
-      </c>
+      <c r="B174" s="16">
+        <v>1</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="s" s="7">
+      <c r="A175" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B175" s="10">
-        <v>1</v>
-      </c>
+      <c r="B175" s="16">
+        <v>1</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="s" s="7">
+      <c r="A176" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B176" s="10">
-        <v>1</v>
-      </c>
+      <c r="B176" s="16">
+        <v>1</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="s" s="7">
+      <c r="A177" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B177" s="10">
-        <v>1</v>
-      </c>
+      <c r="B177" s="16">
+        <v>1</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="s" s="7">
+      <c r="A178" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B178" s="10">
-        <v>1</v>
-      </c>
+      <c r="B178" s="16">
+        <v>1</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="s" s="7">
+      <c r="A179" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B179" s="10">
-        <v>1</v>
-      </c>
+      <c r="B179" s="16">
+        <v>1</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="s" s="7">
+      <c r="A180" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B180" s="10">
-        <v>1</v>
-      </c>
+      <c r="B180" s="16">
+        <v>1</v>
+      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="s" s="7">
+      <c r="A181" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B181" s="10">
-        <v>1</v>
-      </c>
+      <c r="B181" s="16">
+        <v>1</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="s" s="7">
+      <c r="A182" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B182" s="10">
-        <v>1</v>
-      </c>
+      <c r="B182" s="16">
+        <v>1</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="s" s="7">
+      <c r="A183" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B183" s="10">
-        <v>1</v>
-      </c>
+      <c r="B183" s="16">
+        <v>1</v>
+      </c>
+      <c r="C183" s="8"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="s" s="7">
+      <c r="A184" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B184" s="10">
-        <v>1</v>
-      </c>
+      <c r="B184" s="16">
+        <v>1</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" t="s" s="7">
+      <c r="A185" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B185" s="10">
-        <v>1</v>
-      </c>
+      <c r="B185" s="16">
+        <v>1</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" t="s" s="7">
+      <c r="A186" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B186" s="10">
-        <v>1</v>
-      </c>
+      <c r="B186" s="16">
+        <v>1</v>
+      </c>
+      <c r="C186" s="8"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="A187" t="s" s="7">
+      <c r="A187" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B187" s="10">
-        <v>1</v>
-      </c>
+      <c r="B187" s="16">
+        <v>1</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" ht="15" customHeight="1">
-      <c r="A188" t="s" s="7">
+      <c r="A188" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B188" s="10">
-        <v>1</v>
-      </c>
+      <c r="B188" s="16">
+        <v>1</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" t="s" s="7">
+      <c r="A189" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B189" s="10">
-        <v>1</v>
-      </c>
+      <c r="B189" s="16">
+        <v>1</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" ht="15" customHeight="1">
-      <c r="A190" t="s" s="7">
+      <c r="A190" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B190" s="10">
-        <v>1</v>
-      </c>
+      <c r="B190" s="16">
+        <v>1</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" t="s" s="7">
+      <c r="A191" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B191" s="10">
-        <v>1</v>
-      </c>
+      <c r="B191" s="16">
+        <v>1</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="A192" t="s" s="7">
+      <c r="A192" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B192" s="10">
-        <v>1</v>
-      </c>
+      <c r="B192" s="16">
+        <v>1</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="10"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="A193" t="s" s="7">
+      <c r="A193" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B193" s="10">
-        <v>1</v>
-      </c>
+      <c r="B193" s="16">
+        <v>1</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" t="s" s="7">
+      <c r="A194" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B194" s="10">
-        <v>1</v>
-      </c>
+      <c r="B194" s="16">
+        <v>1</v>
+      </c>
+      <c r="C194" s="8"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" t="s" s="7">
+      <c r="A195" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B195" s="10">
-        <v>1</v>
-      </c>
+      <c r="B195" s="16">
+        <v>1</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" t="s" s="7">
+      <c r="A196" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B196" s="10">
-        <v>1</v>
-      </c>
+      <c r="B196" s="16">
+        <v>1</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" t="s" s="7">
+      <c r="A197" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B197" s="10">
-        <v>1</v>
-      </c>
+      <c r="B197" s="16">
+        <v>1</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" t="s" s="7">
+      <c r="A198" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="B198" s="10">
-        <v>1</v>
-      </c>
+      <c r="B198" s="16">
+        <v>1</v>
+      </c>
+      <c r="C198" s="17"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4009,15 +5305,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="70.6016" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.8125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="19.6016" style="12" customWidth="1"/>
+    <col min="1" max="1" width="70.6016" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.8125" style="21" customWidth="1"/>
+    <col min="3" max="5" width="19.6016" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -4025,2366 +5322,3254 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="A2" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" ht="27" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="27" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="27" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="5">
+      <c r="A11" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="39" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="A15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="27" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="10">
-        <v>0</v>
-      </c>
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B40" s="10">
-        <v>0</v>
-      </c>
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="10">
-        <v>0</v>
-      </c>
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B43" s="10">
-        <v>0</v>
-      </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B44" s="10">
-        <v>0</v>
-      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B45" s="10">
-        <v>0</v>
-      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B46" s="10">
-        <v>0</v>
-      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B47" s="10">
-        <v>0</v>
-      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B48" s="10">
-        <v>0</v>
-      </c>
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B49" s="10">
-        <v>0</v>
-      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
+      <c r="B51" s="16">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B52" s="10">
-        <v>1</v>
-      </c>
+      <c r="B52" s="16">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B53" s="10">
-        <v>1</v>
-      </c>
+      <c r="B53" s="16">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
+      <c r="B54" s="16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
+      <c r="B55" s="16">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B57" s="10">
-        <v>1</v>
-      </c>
+      <c r="B57" s="16">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B58" s="10">
-        <v>1</v>
-      </c>
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B60" s="10">
-        <v>1</v>
-      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B61" s="10">
-        <v>1</v>
-      </c>
+      <c r="B61" s="16">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B62" s="10">
-        <v>1</v>
-      </c>
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B63" s="10">
-        <v>1</v>
-      </c>
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B64" s="10">
-        <v>1</v>
-      </c>
+      <c r="B64" s="16">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B65" s="10">
-        <v>1</v>
-      </c>
+      <c r="B65" s="16">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="A66" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B66" s="10">
-        <v>1</v>
-      </c>
+      <c r="B66" s="16">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="A67" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
+      <c r="B67" s="16">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="A68" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
+      <c r="B68" s="16">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="A69" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B69" s="10">
-        <v>1</v>
-      </c>
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="A70" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B70" s="10">
-        <v>1</v>
-      </c>
+      <c r="B70" s="16">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="A71" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
+      <c r="B71" s="16">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="A72" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B72" s="10">
-        <v>1</v>
-      </c>
+      <c r="B72" s="16">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="A73" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B73" s="10">
-        <v>1</v>
-      </c>
+      <c r="B73" s="16">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="A74" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
+      <c r="B74" s="16">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="A75" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B75" s="10">
-        <v>1</v>
-      </c>
+      <c r="B75" s="16">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="A76" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B76" s="10">
-        <v>1</v>
-      </c>
+      <c r="B76" s="16">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B77" s="10">
-        <v>1</v>
-      </c>
+      <c r="B77" s="16">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="A78" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B78" s="10">
-        <v>1</v>
-      </c>
+      <c r="B78" s="16">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="A79" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B79" s="10">
-        <v>1</v>
-      </c>
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="A80" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B80" s="10">
-        <v>1</v>
-      </c>
+      <c r="B80" s="16">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="A81" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="A82" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B82" s="10">
-        <v>1</v>
-      </c>
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="A83" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B83" s="10">
-        <v>1</v>
-      </c>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="A84" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B84" s="10">
-        <v>1</v>
-      </c>
+      <c r="B84" s="16">
+        <v>1</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="A85" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B85" s="10">
-        <v>1</v>
-      </c>
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B86" s="10">
-        <v>1</v>
-      </c>
+      <c r="B86" s="16">
+        <v>1</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="A87" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B87" s="10">
-        <v>1</v>
-      </c>
+      <c r="B87" s="16">
+        <v>1</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B88" s="10">
-        <v>1</v>
-      </c>
+      <c r="B88" s="16">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="A89" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B89" s="10">
-        <v>1</v>
-      </c>
+      <c r="B89" s="16">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="A90" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B90" s="10">
-        <v>1</v>
-      </c>
+      <c r="B90" s="16">
+        <v>1</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="A91" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
+      <c r="B91" s="16">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="A92" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
+      <c r="B92" s="16">
+        <v>1</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="A93" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B93" s="10">
-        <v>1</v>
-      </c>
+      <c r="B93" s="16">
+        <v>1</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="A94" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B94" s="10">
-        <v>1</v>
-      </c>
+      <c r="B94" s="16">
+        <v>1</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="7">
+      <c r="A95" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B95" s="10">
-        <v>1</v>
-      </c>
+      <c r="B95" s="16">
+        <v>1</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" t="s" s="7">
+      <c r="A96" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
+      <c r="B96" s="16">
+        <v>1</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="7">
+      <c r="A97" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
+      <c r="B97" s="16">
+        <v>1</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" t="s" s="7">
+      <c r="A98" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B98" s="10">
-        <v>1</v>
-      </c>
+      <c r="B98" s="16">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" t="s" s="7">
+      <c r="A99" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B99" s="10">
-        <v>1</v>
-      </c>
+      <c r="B99" s="16">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="A100" t="s" s="15">
         <v>100</v>
       </c>
-      <c r="B100" s="8">
-        <v>1</v>
-      </c>
+      <c r="B100" s="14">
+        <v>1</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" t="s" s="5">
+      <c r="A101" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B101" s="6">
-        <v>0</v>
-      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" t="s" s="7">
+      <c r="A102" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B102" s="8">
-        <v>0</v>
-      </c>
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" t="s" s="7">
+      <c r="A103" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B103" s="6">
-        <v>0</v>
-      </c>
+      <c r="B103" s="12">
+        <v>0</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" t="s" s="9">
+      <c r="A104" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B104" s="10">
-        <v>0</v>
-      </c>
+      <c r="B104" s="16">
+        <v>0</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B105" s="10">
-        <v>0</v>
-      </c>
+      <c r="B105" s="16">
+        <v>0</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" t="s" s="7">
+      <c r="A106" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B106" s="8">
-        <v>0</v>
-      </c>
+      <c r="B106" s="14">
+        <v>0</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="s" s="7">
+      <c r="A107" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B107" s="6">
-        <v>0</v>
-      </c>
+      <c r="B107" s="12">
+        <v>0</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="10"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" t="s" s="9">
+      <c r="A108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B108" s="10">
-        <v>0</v>
-      </c>
+      <c r="B108" s="16">
+        <v>0</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" t="s" s="5">
+      <c r="A109" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B109" s="10">
-        <v>0</v>
-      </c>
+      <c r="B109" s="16">
+        <v>0</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="10"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" t="s" s="7">
+      <c r="A110" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B110" s="8">
-        <v>0</v>
-      </c>
+      <c r="B110" s="14">
+        <v>0</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="10"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" t="s" s="7">
+      <c r="A111" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B111" s="6">
-        <v>0</v>
-      </c>
+      <c r="B111" s="12">
+        <v>0</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="10"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" t="s" s="9">
+      <c r="A112" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B112" s="10">
-        <v>0</v>
-      </c>
+      <c r="B112" s="16">
+        <v>0</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" t="s" s="5">
+      <c r="A113" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B113" s="10">
-        <v>0</v>
-      </c>
+      <c r="B113" s="16">
+        <v>0</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" t="s" s="7">
+      <c r="A114" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B114" s="8">
-        <v>0</v>
-      </c>
+      <c r="B114" s="14">
+        <v>0</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="10"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" t="s" s="7">
+      <c r="A115" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B115" s="6">
-        <v>0</v>
-      </c>
+      <c r="B115" s="12">
+        <v>0</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="10"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" t="s" s="7">
+      <c r="A116" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B116" s="10">
-        <v>0</v>
-      </c>
+      <c r="B116" s="16">
+        <v>0</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="10"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" t="s" s="7">
+      <c r="A117" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B117" s="10">
-        <v>0</v>
-      </c>
+      <c r="B117" s="16">
+        <v>0</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" t="s" s="7">
+      <c r="A118" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B118" s="10">
-        <v>0</v>
-      </c>
+      <c r="B118" s="16">
+        <v>0</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" t="s" s="7">
+      <c r="A119" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B119" s="10">
-        <v>0</v>
-      </c>
+      <c r="B119" s="16">
+        <v>0</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" t="s" s="7">
+      <c r="A120" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B120" s="10">
-        <v>0</v>
-      </c>
+      <c r="B120" s="16">
+        <v>0</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" t="s" s="7">
+      <c r="A121" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B121" s="10">
-        <v>0</v>
-      </c>
+      <c r="B121" s="16">
+        <v>0</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" t="s" s="7">
+      <c r="A122" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B122" s="10">
-        <v>0</v>
-      </c>
+      <c r="B122" s="16">
+        <v>0</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" t="s" s="7">
+      <c r="A123" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B123" s="10">
-        <v>0</v>
-      </c>
+      <c r="B123" s="16">
+        <v>0</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" t="s" s="7">
+      <c r="A124" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B124" s="10">
-        <v>0</v>
-      </c>
+      <c r="B124" s="16">
+        <v>0</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" t="s" s="7">
+      <c r="A125" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B125" s="10">
-        <v>0</v>
-      </c>
+      <c r="B125" s="16">
+        <v>0</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" t="s" s="7">
+      <c r="A126" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B126" s="10">
-        <v>0</v>
-      </c>
+      <c r="B126" s="16">
+        <v>0</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" t="s" s="7">
+      <c r="A127" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B127" s="10">
-        <v>0</v>
-      </c>
+      <c r="B127" s="16">
+        <v>0</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" t="s" s="7">
+      <c r="A128" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B128" s="10">
-        <v>0</v>
-      </c>
+      <c r="B128" s="16">
+        <v>0</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="10"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" t="s" s="7">
+      <c r="A129" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B129" s="10">
-        <v>0</v>
-      </c>
+      <c r="B129" s="16">
+        <v>0</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="10"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="s" s="7">
+      <c r="A130" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B130" s="10">
-        <v>0</v>
-      </c>
+      <c r="B130" s="16">
+        <v>0</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" t="s" s="7">
+      <c r="A131" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B131" s="10">
-        <v>0</v>
-      </c>
+      <c r="B131" s="16">
+        <v>0</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="10"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="s" s="7">
+      <c r="A132" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B132" s="10">
-        <v>0</v>
-      </c>
+      <c r="B132" s="16">
+        <v>0</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="10"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="s" s="7">
+      <c r="A133" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B133" s="10">
-        <v>0</v>
-      </c>
+      <c r="B133" s="16">
+        <v>0</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" t="s" s="7">
+      <c r="A134" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B134" s="10">
-        <v>0</v>
-      </c>
+      <c r="B134" s="16">
+        <v>0</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10"/>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" t="s" s="7">
+      <c r="A135" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B135" s="10">
-        <v>0</v>
-      </c>
+      <c r="B135" s="16">
+        <v>0</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" t="s" s="7">
+      <c r="A136" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B136" s="10">
-        <v>0</v>
-      </c>
+      <c r="B136" s="16">
+        <v>0</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" t="s" s="7">
+      <c r="A137" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B137" s="10">
-        <v>0</v>
-      </c>
+      <c r="B137" s="16">
+        <v>0</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="A138" t="s" s="7">
+      <c r="A138" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B138" s="10">
-        <v>0</v>
-      </c>
+      <c r="B138" s="16">
+        <v>0</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" t="s" s="7">
+      <c r="A139" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B139" s="10">
-        <v>0</v>
-      </c>
+      <c r="B139" s="16">
+        <v>0</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" t="s" s="7">
+      <c r="A140" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B140" s="10">
-        <v>0</v>
-      </c>
+      <c r="B140" s="16">
+        <v>0</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" t="s" s="7">
+      <c r="A141" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B141" s="10">
-        <v>0</v>
-      </c>
+      <c r="B141" s="16">
+        <v>0</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" t="s" s="7">
+      <c r="A142" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B142" s="10">
-        <v>0</v>
-      </c>
+      <c r="B142" s="16">
+        <v>0</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="A143" t="s" s="7">
+      <c r="A143" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B143" s="10">
-        <v>0</v>
-      </c>
+      <c r="B143" s="16">
+        <v>0</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" t="s" s="7">
+      <c r="A144" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B144" s="10">
-        <v>0</v>
-      </c>
+      <c r="B144" s="16">
+        <v>0</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" t="s" s="7">
+      <c r="A145" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B145" s="10">
-        <v>0</v>
-      </c>
+      <c r="B145" s="16">
+        <v>0</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" ht="15" customHeight="1">
-      <c r="A146" t="s" s="7">
+      <c r="A146" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B146" s="10">
-        <v>0</v>
-      </c>
+      <c r="B146" s="16">
+        <v>0</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="A147" t="s" s="7">
+      <c r="A147" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B147" s="10">
-        <v>0</v>
-      </c>
+      <c r="B147" s="16">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="s" s="7">
+      <c r="A148" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B148" s="10">
-        <v>0</v>
-      </c>
+      <c r="B148" s="16">
+        <v>0</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="s" s="7">
+      <c r="A149" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B149" s="10">
-        <v>1</v>
-      </c>
+      <c r="B149" s="16">
+        <v>1</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="s" s="7">
+      <c r="A150" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B150" s="10">
-        <v>1</v>
-      </c>
+      <c r="B150" s="16">
+        <v>1</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" ht="15" customHeight="1">
-      <c r="A151" t="s" s="7">
+      <c r="A151" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B151" s="10">
-        <v>1</v>
-      </c>
+      <c r="B151" s="16">
+        <v>1</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="A152" t="s" s="7">
+      <c r="A152" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B152" s="10">
-        <v>1</v>
-      </c>
+      <c r="B152" s="16">
+        <v>1</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" ht="15" customHeight="1">
-      <c r="A153" t="s" s="7">
+      <c r="A153" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B153" s="10">
-        <v>1</v>
-      </c>
+      <c r="B153" s="16">
+        <v>1</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" t="s" s="7">
+      <c r="A154" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B154" s="10">
-        <v>1</v>
-      </c>
+      <c r="B154" s="16">
+        <v>1</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="A155" t="s" s="7">
+      <c r="A155" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B155" s="10">
-        <v>1</v>
-      </c>
+      <c r="B155" s="16">
+        <v>1</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="s" s="7">
+      <c r="A156" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B156" s="10">
-        <v>1</v>
-      </c>
+      <c r="B156" s="16">
+        <v>1</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="s" s="7">
+      <c r="A157" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B157" s="10">
-        <v>1</v>
-      </c>
+      <c r="B157" s="16">
+        <v>1</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="s" s="7">
+      <c r="A158" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B158" s="10">
-        <v>1</v>
-      </c>
+      <c r="B158" s="16">
+        <v>1</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" ht="15" customHeight="1">
-      <c r="A159" t="s" s="7">
+      <c r="A159" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B159" s="10">
-        <v>1</v>
-      </c>
+      <c r="B159" s="16">
+        <v>1</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="A160" t="s" s="7">
+      <c r="A160" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B160" s="10">
-        <v>1</v>
-      </c>
+      <c r="B160" s="16">
+        <v>1</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="A161" t="s" s="7">
+      <c r="A161" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B161" s="10">
-        <v>1</v>
-      </c>
+      <c r="B161" s="16">
+        <v>1</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" ht="15" customHeight="1">
-      <c r="A162" t="s" s="7">
+      <c r="A162" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B162" s="10">
-        <v>1</v>
-      </c>
+      <c r="B162" s="16">
+        <v>1</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" ht="15" customHeight="1">
-      <c r="A163" t="s" s="7">
+      <c r="A163" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B163" s="10">
-        <v>1</v>
-      </c>
+      <c r="B163" s="16">
+        <v>1</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="s" s="7">
+      <c r="A164" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B164" s="10">
-        <v>1</v>
-      </c>
+      <c r="B164" s="16">
+        <v>1</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="s" s="7">
+      <c r="A165" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B165" s="10">
-        <v>1</v>
-      </c>
+      <c r="B165" s="16">
+        <v>1</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="s" s="7">
+      <c r="A166" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B166" s="10">
-        <v>1</v>
-      </c>
+      <c r="B166" s="16">
+        <v>1</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="s" s="7">
+      <c r="A167" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B167" s="10">
-        <v>1</v>
-      </c>
+      <c r="B167" s="16">
+        <v>1</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="s" s="7">
+      <c r="A168" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B168" s="10">
-        <v>1</v>
-      </c>
+      <c r="B168" s="16">
+        <v>1</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="s" s="7">
+      <c r="A169" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B169" s="10">
-        <v>1</v>
-      </c>
+      <c r="B169" s="16">
+        <v>1</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="s" s="7">
+      <c r="A170" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B170" s="10">
-        <v>1</v>
-      </c>
+      <c r="B170" s="16">
+        <v>1</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="s" s="7">
+      <c r="A171" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B171" s="10">
-        <v>1</v>
-      </c>
+      <c r="B171" s="16">
+        <v>1</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="10"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="s" s="7">
+      <c r="A172" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B172" s="10">
-        <v>1</v>
-      </c>
+      <c r="B172" s="16">
+        <v>1</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="s" s="7">
+      <c r="A173" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B173" s="10">
-        <v>1</v>
-      </c>
+      <c r="B173" s="16">
+        <v>1</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="10"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="s" s="7">
+      <c r="A174" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B174" s="10">
-        <v>1</v>
-      </c>
+      <c r="B174" s="16">
+        <v>1</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="s" s="7">
+      <c r="A175" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B175" s="10">
-        <v>1</v>
-      </c>
+      <c r="B175" s="16">
+        <v>1</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="s" s="7">
+      <c r="A176" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B176" s="10">
-        <v>1</v>
-      </c>
+      <c r="B176" s="16">
+        <v>1</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="s" s="7">
+      <c r="A177" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B177" s="10">
-        <v>1</v>
-      </c>
+      <c r="B177" s="16">
+        <v>1</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="10"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="s" s="7">
+      <c r="A178" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B178" s="10">
-        <v>1</v>
-      </c>
+      <c r="B178" s="16">
+        <v>1</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="10"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="s" s="7">
+      <c r="A179" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B179" s="10">
-        <v>1</v>
-      </c>
+      <c r="B179" s="16">
+        <v>1</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="10"/>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="s" s="7">
+      <c r="A180" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B180" s="10">
-        <v>1</v>
-      </c>
+      <c r="B180" s="16">
+        <v>1</v>
+      </c>
+      <c r="C180" s="8"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="s" s="7">
+      <c r="A181" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B181" s="10">
-        <v>1</v>
-      </c>
+      <c r="B181" s="16">
+        <v>1</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="s" s="7">
+      <c r="A182" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B182" s="10">
-        <v>1</v>
-      </c>
+      <c r="B182" s="16">
+        <v>1</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="s" s="7">
+      <c r="A183" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B183" s="10">
-        <v>1</v>
-      </c>
+      <c r="B183" s="16">
+        <v>1</v>
+      </c>
+      <c r="C183" s="8"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="s" s="7">
+      <c r="A184" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B184" s="10">
-        <v>1</v>
-      </c>
+      <c r="B184" s="16">
+        <v>1</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" t="s" s="7">
+      <c r="A185" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B185" s="10">
-        <v>1</v>
-      </c>
+      <c r="B185" s="16">
+        <v>1</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" t="s" s="7">
+      <c r="A186" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B186" s="10">
-        <v>1</v>
-      </c>
+      <c r="B186" s="16">
+        <v>1</v>
+      </c>
+      <c r="C186" s="8"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" ht="15" customHeight="1">
-      <c r="A187" t="s" s="7">
+      <c r="A187" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B187" s="10">
-        <v>1</v>
-      </c>
+      <c r="B187" s="16">
+        <v>1</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" ht="15" customHeight="1">
-      <c r="A188" t="s" s="7">
+      <c r="A188" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B188" s="10">
-        <v>1</v>
-      </c>
+      <c r="B188" s="16">
+        <v>1</v>
+      </c>
+      <c r="C188" s="8"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" t="s" s="7">
+      <c r="A189" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B189" s="10">
-        <v>1</v>
-      </c>
+      <c r="B189" s="16">
+        <v>1</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" ht="15" customHeight="1">
-      <c r="A190" t="s" s="7">
+      <c r="A190" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B190" s="10">
-        <v>1</v>
-      </c>
+      <c r="B190" s="16">
+        <v>1</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" ht="15" customHeight="1">
-      <c r="A191" t="s" s="7">
+      <c r="A191" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B191" s="10">
-        <v>1</v>
-      </c>
+      <c r="B191" s="16">
+        <v>1</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="A192" t="s" s="7">
+      <c r="A192" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B192" s="10">
-        <v>1</v>
-      </c>
+      <c r="B192" s="16">
+        <v>1</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="10"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="A193" t="s" s="7">
+      <c r="A193" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B193" s="10">
-        <v>1</v>
-      </c>
+      <c r="B193" s="16">
+        <v>1</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="10"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" t="s" s="7">
+      <c r="A194" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B194" s="10">
-        <v>1</v>
-      </c>
+      <c r="B194" s="16">
+        <v>1</v>
+      </c>
+      <c r="C194" s="8"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="10"/>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" t="s" s="7">
+      <c r="A195" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B195" s="10">
-        <v>1</v>
-      </c>
+      <c r="B195" s="16">
+        <v>1</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="10"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" t="s" s="7">
+      <c r="A196" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B196" s="10">
-        <v>1</v>
-      </c>
+      <c r="B196" s="16">
+        <v>1</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="10"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" t="s" s="7">
+      <c r="A197" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B197" s="10">
-        <v>1</v>
-      </c>
+      <c r="B197" s="16">
+        <v>1</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="10"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" t="s" s="9">
+      <c r="A198" t="s" s="15">
         <v>100</v>
       </c>
-      <c r="B198" s="8">
-        <v>1</v>
-      </c>
+      <c r="B198" s="14">
+        <v>1</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="10"/>
     </row>
     <row r="199" ht="15" customHeight="1">
-      <c r="A199" t="s" s="5">
+      <c r="A199" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="B199" s="6">
-        <v>0</v>
-      </c>
+      <c r="B199" s="12">
+        <v>0</v>
+      </c>
+      <c r="C199" s="8"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="10"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" t="s" s="7">
+      <c r="A200" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B200" s="8">
-        <v>0</v>
-      </c>
+      <c r="B200" s="14">
+        <v>0</v>
+      </c>
+      <c r="C200" s="8"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="10"/>
     </row>
     <row r="201" ht="15" customHeight="1">
-      <c r="A201" t="s" s="7">
+      <c r="A201" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B201" s="6">
-        <v>0</v>
-      </c>
+      <c r="B201" s="12">
+        <v>0</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="10"/>
     </row>
     <row r="202" ht="15" customHeight="1">
-      <c r="A202" t="s" s="9">
+      <c r="A202" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B202" s="10">
-        <v>0</v>
-      </c>
+      <c r="B202" s="16">
+        <v>0</v>
+      </c>
+      <c r="C202" s="8"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" ht="15" customHeight="1">
-      <c r="A203" t="s" s="5">
+      <c r="A203" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B203" s="10">
-        <v>0</v>
-      </c>
+      <c r="B203" s="16">
+        <v>0</v>
+      </c>
+      <c r="C203" s="8"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" ht="15" customHeight="1">
-      <c r="A204" t="s" s="7">
+      <c r="A204" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B204" s="8">
-        <v>0</v>
-      </c>
+      <c r="B204" s="14">
+        <v>0</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" ht="15" customHeight="1">
-      <c r="A205" t="s" s="7">
+      <c r="A205" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B205" s="6">
-        <v>0</v>
-      </c>
+      <c r="B205" s="12">
+        <v>0</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="10"/>
     </row>
     <row r="206" ht="15" customHeight="1">
-      <c r="A206" t="s" s="9">
+      <c r="A206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B206" s="10">
-        <v>0</v>
-      </c>
+      <c r="B206" s="16">
+        <v>0</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="10"/>
     </row>
     <row r="207" ht="15" customHeight="1">
-      <c r="A207" t="s" s="5">
+      <c r="A207" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B207" s="10">
-        <v>0</v>
-      </c>
+      <c r="B207" s="16">
+        <v>0</v>
+      </c>
+      <c r="C207" s="8"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" ht="15" customHeight="1">
-      <c r="A208" t="s" s="7">
+      <c r="A208" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B208" s="8">
-        <v>0</v>
-      </c>
+      <c r="B208" s="14">
+        <v>0</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="10"/>
     </row>
     <row r="209" ht="15" customHeight="1">
-      <c r="A209" t="s" s="7">
+      <c r="A209" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B209" s="6">
-        <v>0</v>
-      </c>
+      <c r="B209" s="12">
+        <v>0</v>
+      </c>
+      <c r="C209" s="8"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" ht="15" customHeight="1">
-      <c r="A210" t="s" s="9">
+      <c r="A210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="B210" s="10">
-        <v>0</v>
-      </c>
+      <c r="B210" s="16">
+        <v>0</v>
+      </c>
+      <c r="C210" s="8"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" ht="15" customHeight="1">
-      <c r="A211" t="s" s="5">
+      <c r="A211" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B211" s="10">
-        <v>0</v>
-      </c>
+      <c r="B211" s="16">
+        <v>0</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" ht="15" customHeight="1">
-      <c r="A212" t="s" s="7">
+      <c r="A212" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B212" s="8">
-        <v>0</v>
-      </c>
+      <c r="B212" s="14">
+        <v>0</v>
+      </c>
+      <c r="C212" s="8"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" ht="15" customHeight="1">
-      <c r="A213" t="s" s="7">
+      <c r="A213" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B213" s="6">
-        <v>0</v>
-      </c>
+      <c r="B213" s="12">
+        <v>0</v>
+      </c>
+      <c r="C213" s="8"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="10"/>
     </row>
     <row r="214" ht="15" customHeight="1">
-      <c r="A214" t="s" s="7">
+      <c r="A214" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B214" s="10">
-        <v>0</v>
-      </c>
+      <c r="B214" s="16">
+        <v>0</v>
+      </c>
+      <c r="C214" s="8"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="10"/>
     </row>
     <row r="215" ht="15" customHeight="1">
-      <c r="A215" t="s" s="7">
+      <c r="A215" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B215" s="10">
-        <v>0</v>
-      </c>
+      <c r="B215" s="16">
+        <v>0</v>
+      </c>
+      <c r="C215" s="8"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216" ht="15" customHeight="1">
-      <c r="A216" t="s" s="7">
+      <c r="A216" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B216" s="10">
-        <v>0</v>
-      </c>
+      <c r="B216" s="16">
+        <v>0</v>
+      </c>
+      <c r="C216" s="8"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="10"/>
     </row>
     <row r="217" ht="15" customHeight="1">
-      <c r="A217" t="s" s="7">
+      <c r="A217" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B217" s="10">
-        <v>0</v>
-      </c>
+      <c r="B217" s="16">
+        <v>0</v>
+      </c>
+      <c r="C217" s="8"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" ht="15" customHeight="1">
-      <c r="A218" t="s" s="7">
+      <c r="A218" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B218" s="10">
-        <v>0</v>
-      </c>
+      <c r="B218" s="16">
+        <v>0</v>
+      </c>
+      <c r="C218" s="8"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="10"/>
     </row>
     <row r="219" ht="15" customHeight="1">
-      <c r="A219" t="s" s="7">
+      <c r="A219" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B219" s="10">
-        <v>0</v>
-      </c>
+      <c r="B219" s="16">
+        <v>0</v>
+      </c>
+      <c r="C219" s="8"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="10"/>
     </row>
     <row r="220" ht="15" customHeight="1">
-      <c r="A220" t="s" s="7">
+      <c r="A220" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B220" s="10">
-        <v>0</v>
-      </c>
+      <c r="B220" s="16">
+        <v>0</v>
+      </c>
+      <c r="C220" s="8"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="10"/>
     </row>
     <row r="221" ht="15" customHeight="1">
-      <c r="A221" t="s" s="7">
+      <c r="A221" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B221" s="10">
-        <v>0</v>
-      </c>
+      <c r="B221" s="16">
+        <v>0</v>
+      </c>
+      <c r="C221" s="8"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" ht="15" customHeight="1">
-      <c r="A222" t="s" s="7">
+      <c r="A222" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B222" s="10">
-        <v>0</v>
-      </c>
+      <c r="B222" s="16">
+        <v>0</v>
+      </c>
+      <c r="C222" s="8"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="10"/>
     </row>
     <row r="223" ht="15" customHeight="1">
-      <c r="A223" t="s" s="7">
+      <c r="A223" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B223" s="10">
-        <v>0</v>
-      </c>
+      <c r="B223" s="16">
+        <v>0</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="10"/>
     </row>
     <row r="224" ht="15" customHeight="1">
-      <c r="A224" t="s" s="7">
+      <c r="A224" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B224" s="10">
-        <v>0</v>
-      </c>
+      <c r="B224" s="16">
+        <v>0</v>
+      </c>
+      <c r="C224" s="8"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="10"/>
     </row>
     <row r="225" ht="15" customHeight="1">
-      <c r="A225" t="s" s="7">
+      <c r="A225" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B225" s="10">
-        <v>0</v>
-      </c>
+      <c r="B225" s="16">
+        <v>0</v>
+      </c>
+      <c r="C225" s="8"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="10"/>
     </row>
     <row r="226" ht="15" customHeight="1">
-      <c r="A226" t="s" s="7">
+      <c r="A226" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B226" s="10">
-        <v>0</v>
-      </c>
+      <c r="B226" s="16">
+        <v>0</v>
+      </c>
+      <c r="C226" s="8"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" ht="15" customHeight="1">
-      <c r="A227" t="s" s="7">
+      <c r="A227" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B227" s="10">
-        <v>0</v>
-      </c>
+      <c r="B227" s="16">
+        <v>0</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="10"/>
     </row>
     <row r="228" ht="15" customHeight="1">
-      <c r="A228" t="s" s="7">
+      <c r="A228" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B228" s="10">
-        <v>0</v>
-      </c>
+      <c r="B228" s="16">
+        <v>0</v>
+      </c>
+      <c r="C228" s="8"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="10"/>
     </row>
     <row r="229" ht="15" customHeight="1">
-      <c r="A229" t="s" s="7">
+      <c r="A229" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B229" s="10">
-        <v>0</v>
-      </c>
+      <c r="B229" s="16">
+        <v>0</v>
+      </c>
+      <c r="C229" s="8"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="10"/>
     </row>
     <row r="230" ht="15" customHeight="1">
-      <c r="A230" t="s" s="7">
+      <c r="A230" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B230" s="10">
-        <v>0</v>
-      </c>
+      <c r="B230" s="16">
+        <v>0</v>
+      </c>
+      <c r="C230" s="8"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="10"/>
     </row>
     <row r="231" ht="15" customHeight="1">
-      <c r="A231" t="s" s="7">
+      <c r="A231" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B231" s="10">
-        <v>0</v>
-      </c>
+      <c r="B231" s="16">
+        <v>0</v>
+      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" ht="15" customHeight="1">
-      <c r="A232" t="s" s="7">
+      <c r="A232" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B232" s="10">
-        <v>0</v>
-      </c>
+      <c r="B232" s="16">
+        <v>0</v>
+      </c>
+      <c r="C232" s="8"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="10"/>
     </row>
     <row r="233" ht="15" customHeight="1">
-      <c r="A233" t="s" s="7">
+      <c r="A233" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B233" s="10">
-        <v>0</v>
-      </c>
+      <c r="B233" s="16">
+        <v>0</v>
+      </c>
+      <c r="C233" s="8"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="10"/>
     </row>
     <row r="234" ht="15" customHeight="1">
-      <c r="A234" t="s" s="7">
+      <c r="A234" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B234" s="10">
-        <v>0</v>
-      </c>
+      <c r="B234" s="16">
+        <v>0</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="10"/>
     </row>
     <row r="235" ht="15" customHeight="1">
-      <c r="A235" t="s" s="7">
+      <c r="A235" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B235" s="10">
-        <v>0</v>
-      </c>
+      <c r="B235" s="16">
+        <v>0</v>
+      </c>
+      <c r="C235" s="8"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236" ht="15" customHeight="1">
-      <c r="A236" t="s" s="7">
+      <c r="A236" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B236" s="10">
-        <v>0</v>
-      </c>
+      <c r="B236" s="16">
+        <v>0</v>
+      </c>
+      <c r="C236" s="8"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237" ht="15" customHeight="1">
-      <c r="A237" t="s" s="7">
+      <c r="A237" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B237" s="10">
-        <v>0</v>
-      </c>
+      <c r="B237" s="16">
+        <v>0</v>
+      </c>
+      <c r="C237" s="8"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="10"/>
     </row>
     <row r="238" ht="15" customHeight="1">
-      <c r="A238" t="s" s="7">
+      <c r="A238" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="B238" s="10">
-        <v>0</v>
-      </c>
+      <c r="B238" s="16">
+        <v>0</v>
+      </c>
+      <c r="C238" s="8"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="10"/>
     </row>
     <row r="239" ht="15" customHeight="1">
-      <c r="A239" t="s" s="7">
+      <c r="A239" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B239" s="10">
-        <v>0</v>
-      </c>
+      <c r="B239" s="16">
+        <v>0</v>
+      </c>
+      <c r="C239" s="8"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="10"/>
     </row>
     <row r="240" ht="15" customHeight="1">
-      <c r="A240" t="s" s="7">
+      <c r="A240" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B240" s="10">
-        <v>0</v>
-      </c>
+      <c r="B240" s="16">
+        <v>0</v>
+      </c>
+      <c r="C240" s="8"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="10"/>
     </row>
     <row r="241" ht="15" customHeight="1">
-      <c r="A241" t="s" s="7">
+      <c r="A241" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B241" s="10">
-        <v>0</v>
-      </c>
+      <c r="B241" s="16">
+        <v>0</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="10"/>
     </row>
     <row r="242" ht="15" customHeight="1">
-      <c r="A242" t="s" s="7">
+      <c r="A242" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B242" s="10">
-        <v>0</v>
-      </c>
+      <c r="B242" s="16">
+        <v>0</v>
+      </c>
+      <c r="C242" s="8"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="10"/>
     </row>
     <row r="243" ht="15" customHeight="1">
-      <c r="A243" t="s" s="7">
+      <c r="A243" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="B243" s="10">
-        <v>0</v>
-      </c>
+      <c r="B243" s="16">
+        <v>0</v>
+      </c>
+      <c r="C243" s="8"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="10"/>
     </row>
     <row r="244" ht="15" customHeight="1">
-      <c r="A244" t="s" s="7">
+      <c r="A244" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B244" s="10">
-        <v>0</v>
-      </c>
+      <c r="B244" s="16">
+        <v>0</v>
+      </c>
+      <c r="C244" s="8"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245" ht="15" customHeight="1">
-      <c r="A245" t="s" s="7">
+      <c r="A245" t="s" s="13">
         <v>49</v>
       </c>
-      <c r="B245" s="10">
-        <v>0</v>
-      </c>
+      <c r="B245" s="16">
+        <v>0</v>
+      </c>
+      <c r="C245" s="8"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246" ht="15" customHeight="1">
-      <c r="A246" t="s" s="7">
+      <c r="A246" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B246" s="10">
-        <v>0</v>
-      </c>
+      <c r="B246" s="16">
+        <v>0</v>
+      </c>
+      <c r="C246" s="8"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247" ht="15" customHeight="1">
-      <c r="A247" t="s" s="7">
+      <c r="A247" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B247" s="10">
-        <v>1</v>
-      </c>
+      <c r="B247" s="16">
+        <v>1</v>
+      </c>
+      <c r="C247" s="8"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248" ht="15" customHeight="1">
-      <c r="A248" t="s" s="7">
+      <c r="A248" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B248" s="10">
-        <v>1</v>
-      </c>
+      <c r="B248" s="16">
+        <v>1</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="10"/>
     </row>
     <row r="249" ht="15" customHeight="1">
-      <c r="A249" t="s" s="7">
+      <c r="A249" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B249" s="10">
-        <v>1</v>
-      </c>
+      <c r="B249" s="16">
+        <v>1</v>
+      </c>
+      <c r="C249" s="8"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250" ht="15" customHeight="1">
-      <c r="A250" t="s" s="7">
+      <c r="A250" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B250" s="10">
-        <v>1</v>
-      </c>
+      <c r="B250" s="16">
+        <v>1</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251" ht="15" customHeight="1">
-      <c r="A251" t="s" s="7">
+      <c r="A251" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="B251" s="10">
-        <v>1</v>
-      </c>
+      <c r="B251" s="16">
+        <v>1</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252" ht="15" customHeight="1">
-      <c r="A252" t="s" s="7">
+      <c r="A252" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B252" s="10">
-        <v>1</v>
-      </c>
+      <c r="B252" s="16">
+        <v>1</v>
+      </c>
+      <c r="C252" s="8"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="10"/>
     </row>
     <row r="253" ht="15" customHeight="1">
-      <c r="A253" t="s" s="7">
+      <c r="A253" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B253" s="10">
-        <v>1</v>
-      </c>
+      <c r="B253" s="16">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="10"/>
     </row>
     <row r="254" ht="15" customHeight="1">
-      <c r="A254" t="s" s="7">
+      <c r="A254" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B254" s="10">
-        <v>1</v>
-      </c>
+      <c r="B254" s="16">
+        <v>1</v>
+      </c>
+      <c r="C254" s="8"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" ht="15" customHeight="1">
-      <c r="A255" t="s" s="7">
+      <c r="A255" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B255" s="10">
-        <v>1</v>
-      </c>
+      <c r="B255" s="16">
+        <v>1</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="10"/>
     </row>
     <row r="256" ht="15" customHeight="1">
-      <c r="A256" t="s" s="7">
+      <c r="A256" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="B256" s="10">
-        <v>1</v>
-      </c>
+      <c r="B256" s="16">
+        <v>1</v>
+      </c>
+      <c r="C256" s="8"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="10"/>
     </row>
     <row r="257" ht="15" customHeight="1">
-      <c r="A257" t="s" s="7">
+      <c r="A257" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="B257" s="10">
-        <v>1</v>
-      </c>
+      <c r="B257" s="16">
+        <v>1</v>
+      </c>
+      <c r="C257" s="8"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="10"/>
     </row>
     <row r="258" ht="15" customHeight="1">
-      <c r="A258" t="s" s="7">
+      <c r="A258" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B258" s="10">
-        <v>1</v>
-      </c>
+      <c r="B258" s="16">
+        <v>1</v>
+      </c>
+      <c r="C258" s="8"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="10"/>
     </row>
     <row r="259" ht="15" customHeight="1">
-      <c r="A259" t="s" s="7">
+      <c r="A259" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="B259" s="10">
-        <v>1</v>
-      </c>
+      <c r="B259" s="16">
+        <v>1</v>
+      </c>
+      <c r="C259" s="8"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="10"/>
     </row>
     <row r="260" ht="15" customHeight="1">
-      <c r="A260" t="s" s="7">
+      <c r="A260" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B260" s="10">
-        <v>1</v>
-      </c>
+      <c r="B260" s="16">
+        <v>1</v>
+      </c>
+      <c r="C260" s="8"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="10"/>
     </row>
     <row r="261" ht="15" customHeight="1">
-      <c r="A261" t="s" s="7">
+      <c r="A261" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B261" s="10">
-        <v>1</v>
-      </c>
+      <c r="B261" s="16">
+        <v>1</v>
+      </c>
+      <c r="C261" s="8"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="10"/>
     </row>
     <row r="262" ht="15" customHeight="1">
-      <c r="A262" t="s" s="7">
+      <c r="A262" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B262" s="10">
-        <v>1</v>
-      </c>
+      <c r="B262" s="16">
+        <v>1</v>
+      </c>
+      <c r="C262" s="8"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="10"/>
     </row>
     <row r="263" ht="15" customHeight="1">
-      <c r="A263" t="s" s="7">
+      <c r="A263" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B263" s="10">
-        <v>1</v>
-      </c>
+      <c r="B263" s="16">
+        <v>1</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="10"/>
     </row>
     <row r="264" ht="15" customHeight="1">
-      <c r="A264" t="s" s="7">
+      <c r="A264" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B264" s="10">
-        <v>1</v>
-      </c>
+      <c r="B264" s="16">
+        <v>1</v>
+      </c>
+      <c r="C264" s="8"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="10"/>
     </row>
     <row r="265" ht="15" customHeight="1">
-      <c r="A265" t="s" s="7">
+      <c r="A265" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B265" s="10">
-        <v>1</v>
-      </c>
+      <c r="B265" s="16">
+        <v>1</v>
+      </c>
+      <c r="C265" s="8"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="10"/>
     </row>
     <row r="266" ht="15" customHeight="1">
-      <c r="A266" t="s" s="7">
+      <c r="A266" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B266" s="10">
-        <v>1</v>
-      </c>
+      <c r="B266" s="16">
+        <v>1</v>
+      </c>
+      <c r="C266" s="8"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="10"/>
     </row>
     <row r="267" ht="15" customHeight="1">
-      <c r="A267" t="s" s="7">
+      <c r="A267" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="B267" s="10">
-        <v>1</v>
-      </c>
+      <c r="B267" s="16">
+        <v>1</v>
+      </c>
+      <c r="C267" s="8"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="10"/>
     </row>
     <row r="268" ht="15" customHeight="1">
-      <c r="A268" t="s" s="7">
+      <c r="A268" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B268" s="10">
-        <v>1</v>
-      </c>
+      <c r="B268" s="16">
+        <v>1</v>
+      </c>
+      <c r="C268" s="8"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="10"/>
     </row>
     <row r="269" ht="15" customHeight="1">
-      <c r="A269" t="s" s="7">
+      <c r="A269" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B269" s="10">
-        <v>1</v>
-      </c>
+      <c r="B269" s="16">
+        <v>1</v>
+      </c>
+      <c r="C269" s="8"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270" ht="15" customHeight="1">
-      <c r="A270" t="s" s="7">
+      <c r="A270" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B270" s="10">
-        <v>1</v>
-      </c>
+      <c r="B270" s="16">
+        <v>1</v>
+      </c>
+      <c r="C270" s="8"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" ht="15" customHeight="1">
-      <c r="A271" t="s" s="7">
+      <c r="A271" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B271" s="10">
-        <v>1</v>
-      </c>
+      <c r="B271" s="16">
+        <v>1</v>
+      </c>
+      <c r="C271" s="8"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272" ht="15" customHeight="1">
-      <c r="A272" t="s" s="7">
+      <c r="A272" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B272" s="10">
-        <v>1</v>
-      </c>
+      <c r="B272" s="16">
+        <v>1</v>
+      </c>
+      <c r="C272" s="8"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="10"/>
     </row>
     <row r="273" ht="15" customHeight="1">
-      <c r="A273" t="s" s="7">
+      <c r="A273" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B273" s="10">
-        <v>1</v>
-      </c>
+      <c r="B273" s="16">
+        <v>1</v>
+      </c>
+      <c r="C273" s="8"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="10"/>
     </row>
     <row r="274" ht="15" customHeight="1">
-      <c r="A274" t="s" s="7">
+      <c r="A274" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B274" s="10">
-        <v>1</v>
-      </c>
+      <c r="B274" s="16">
+        <v>1</v>
+      </c>
+      <c r="C274" s="8"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="10"/>
     </row>
     <row r="275" ht="15" customHeight="1">
-      <c r="A275" t="s" s="7">
+      <c r="A275" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B275" s="10">
-        <v>1</v>
-      </c>
+      <c r="B275" s="16">
+        <v>1</v>
+      </c>
+      <c r="C275" s="8"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276" ht="15" customHeight="1">
-      <c r="A276" t="s" s="7">
+      <c r="A276" t="s" s="13">
         <v>80</v>
       </c>
-      <c r="B276" s="10">
-        <v>1</v>
-      </c>
+      <c r="B276" s="16">
+        <v>1</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="10"/>
     </row>
     <row r="277" ht="15" customHeight="1">
-      <c r="A277" t="s" s="7">
+      <c r="A277" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B277" s="10">
-        <v>1</v>
-      </c>
+      <c r="B277" s="16">
+        <v>1</v>
+      </c>
+      <c r="C277" s="8"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="10"/>
     </row>
     <row r="278" ht="15" customHeight="1">
-      <c r="A278" t="s" s="7">
+      <c r="A278" t="s" s="13">
         <v>82</v>
       </c>
-      <c r="B278" s="10">
-        <v>1</v>
-      </c>
+      <c r="B278" s="16">
+        <v>1</v>
+      </c>
+      <c r="C278" s="8"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="10"/>
     </row>
     <row r="279" ht="15" customHeight="1">
-      <c r="A279" t="s" s="7">
+      <c r="A279" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="B279" s="10">
-        <v>1</v>
-      </c>
+      <c r="B279" s="16">
+        <v>1</v>
+      </c>
+      <c r="C279" s="8"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="10"/>
     </row>
     <row r="280" ht="15" customHeight="1">
-      <c r="A280" t="s" s="7">
+      <c r="A280" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B280" s="10">
-        <v>1</v>
-      </c>
+      <c r="B280" s="16">
+        <v>1</v>
+      </c>
+      <c r="C280" s="8"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="10"/>
     </row>
     <row r="281" ht="15" customHeight="1">
-      <c r="A281" t="s" s="7">
+      <c r="A281" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="B281" s="10">
-        <v>1</v>
-      </c>
+      <c r="B281" s="16">
+        <v>1</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="10"/>
     </row>
     <row r="282" ht="15" customHeight="1">
-      <c r="A282" t="s" s="7">
+      <c r="A282" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B282" s="10">
-        <v>1</v>
-      </c>
+      <c r="B282" s="16">
+        <v>1</v>
+      </c>
+      <c r="C282" s="8"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="10"/>
     </row>
     <row r="283" ht="15" customHeight="1">
-      <c r="A283" t="s" s="7">
+      <c r="A283" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="B283" s="10">
-        <v>1</v>
-      </c>
+      <c r="B283" s="16">
+        <v>1</v>
+      </c>
+      <c r="C283" s="8"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="10"/>
     </row>
     <row r="284" ht="15" customHeight="1">
-      <c r="A284" t="s" s="7">
+      <c r="A284" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B284" s="10">
-        <v>1</v>
-      </c>
+      <c r="B284" s="16">
+        <v>1</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="10"/>
     </row>
     <row r="285" ht="15" customHeight="1">
-      <c r="A285" t="s" s="7">
+      <c r="A285" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="B285" s="10">
-        <v>1</v>
-      </c>
+      <c r="B285" s="16">
+        <v>1</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="10"/>
     </row>
     <row r="286" ht="15" customHeight="1">
-      <c r="A286" t="s" s="7">
+      <c r="A286" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B286" s="10">
-        <v>1</v>
-      </c>
+      <c r="B286" s="16">
+        <v>1</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287" ht="15" customHeight="1">
-      <c r="A287" t="s" s="7">
+      <c r="A287" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B287" s="10">
-        <v>1</v>
-      </c>
+      <c r="B287" s="16">
+        <v>1</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="10"/>
     </row>
     <row r="288" ht="15" customHeight="1">
-      <c r="A288" t="s" s="7">
+      <c r="A288" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="B288" s="10">
-        <v>1</v>
-      </c>
+      <c r="B288" s="16">
+        <v>1</v>
+      </c>
+      <c r="C288" s="8"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289" ht="15" customHeight="1">
-      <c r="A289" t="s" s="7">
+      <c r="A289" t="s" s="13">
         <v>93</v>
       </c>
-      <c r="B289" s="10">
-        <v>1</v>
-      </c>
+      <c r="B289" s="16">
+        <v>1</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="10"/>
     </row>
     <row r="290" ht="15" customHeight="1">
-      <c r="A290" t="s" s="7">
+      <c r="A290" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B290" s="10">
-        <v>1</v>
-      </c>
+      <c r="B290" s="16">
+        <v>1</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291" ht="15" customHeight="1">
-      <c r="A291" t="s" s="7">
+      <c r="A291" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B291" s="10">
-        <v>1</v>
-      </c>
+      <c r="B291" s="16">
+        <v>1</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292" ht="15" customHeight="1">
-      <c r="A292" t="s" s="7">
+      <c r="A292" t="s" s="13">
         <v>96</v>
       </c>
-      <c r="B292" s="10">
-        <v>1</v>
-      </c>
+      <c r="B292" s="16">
+        <v>1</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293" ht="15" customHeight="1">
-      <c r="A293" t="s" s="7">
+      <c r="A293" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B293" s="10">
-        <v>1</v>
-      </c>
+      <c r="B293" s="16">
+        <v>1</v>
+      </c>
+      <c r="C293" s="8"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294" ht="15" customHeight="1">
-      <c r="A294" t="s" s="7">
+      <c r="A294" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B294" s="10">
-        <v>1</v>
-      </c>
+      <c r="B294" s="16">
+        <v>1</v>
+      </c>
+      <c r="C294" s="8"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295" ht="15" customHeight="1">
-      <c r="A295" t="s" s="7">
+      <c r="A295" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="B295" s="10">
-        <v>1</v>
-      </c>
+      <c r="B295" s="16">
+        <v>1</v>
+      </c>
+      <c r="C295" s="8"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" ht="15" customHeight="1">
-      <c r="A296" t="s" s="7">
+      <c r="A296" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="B296" s="10">
-        <v>1</v>
-      </c>
+      <c r="B296" s="16">
+        <v>1</v>
+      </c>
+      <c r="C296" s="17"/>
+      <c r="D296" s="18"/>
+      <c r="E296" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6396,4 +8581,288 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="42.6016" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="19.6016" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="12.85" customHeight="1">
+      <c r="A2" t="s" s="24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="14.45" customHeight="1">
+      <c r="A3" t="s" s="25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="14.45" customHeight="1">
+      <c r="A4" t="s" s="26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
+      <c r="A5" t="s" s="26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" ht="14.45" customHeight="1">
+      <c r="A6" t="s" s="26">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" ht="14.45" customHeight="1">
+      <c r="A7" t="s" s="26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" ht="14.45" customHeight="1">
+      <c r="A8" t="s" s="26">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" ht="14.45" customHeight="1">
+      <c r="A9" t="s" s="26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" ht="14.45" customHeight="1">
+      <c r="A10" t="s" s="26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="14.45" customHeight="1">
+      <c r="A11" t="s" s="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" ht="14.45" customHeight="1">
+      <c r="A12" t="s" s="26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="14.45" customHeight="1">
+      <c r="A13" t="s" s="26">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" ht="14.45" customHeight="1">
+      <c r="A14" t="s" s="26">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" ht="14.45" customHeight="1">
+      <c r="A15" t="s" s="26">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" ht="14.45" customHeight="1">
+      <c r="A16" t="s" s="26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1">
+      <c r="A17" t="s" s="26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" ht="14.45" customHeight="1">
+      <c r="A18" t="s" s="26">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="14.45" customHeight="1">
+      <c r="A19" t="s" s="26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" ht="14.45" customHeight="1">
+      <c r="A20" t="s" s="26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" ht="14.45" customHeight="1">
+      <c r="A21" t="s" s="26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="14.45" customHeight="1">
+      <c r="A22" t="s" s="26">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" ht="14.45" customHeight="1">
+      <c r="A23" t="s" s="26">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="14.45" customHeight="1">
+      <c r="A24" t="s" s="26">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" ht="14.45" customHeight="1">
+      <c r="A25" t="s" s="26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" ht="14.45" customHeight="1">
+      <c r="A26" t="s" s="26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" ht="14.45" customHeight="1">
+      <c r="A27" t="s" s="26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" ht="14.45" customHeight="1">
+      <c r="A28" t="s" s="26">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" ht="14.45" customHeight="1">
+      <c r="A29" t="s" s="26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" ht="14.45" customHeight="1">
+      <c r="A30" t="s" s="26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" ht="14.45" customHeight="1">
+      <c r="A31" t="s" s="26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" ht="14.45" customHeight="1">
+      <c r="A32" t="s" s="26">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" ht="14.45" customHeight="1">
+      <c r="A33" t="s" s="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" ht="14.45" customHeight="1">
+      <c r="A34" t="s" s="26">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="14.45" customHeight="1">
+      <c r="A35" t="s" s="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" ht="14.45" customHeight="1">
+      <c r="A36" t="s" s="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" ht="14.45" customHeight="1">
+      <c r="A37" t="s" s="26">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" ht="14.45" customHeight="1">
+      <c r="A38" t="s" s="26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="14.45" customHeight="1">
+      <c r="A39" t="s" s="26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" ht="14.45" customHeight="1">
+      <c r="A40" t="s" s="26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" ht="14.45" customHeight="1">
+      <c r="A41" t="s" s="26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" ht="14.45" customHeight="1">
+      <c r="A42" t="s" s="26">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" ht="14.45" customHeight="1">
+      <c r="A43" t="s" s="26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" ht="14.45" customHeight="1">
+      <c r="A44" t="s" s="26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" ht="14.45" customHeight="1">
+      <c r="A45" t="s" s="26">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" ht="14.45" customHeight="1">
+      <c r="A46" t="s" s="26">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" ht="14.45" customHeight="1">
+      <c r="A47" t="s" s="26">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" ht="14.45" customHeight="1">
+      <c r="A48" t="s" s="26">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" ht="14.45" customHeight="1">
+      <c r="A49" t="s" s="26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" ht="14.45" customHeight="1">
+      <c r="A50" t="s" s="26">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" ht="14.45" customHeight="1">
+      <c r="A51" t="s" s="26">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" ht="14.45" customHeight="1">
+      <c r="A52" t="s" s="26">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>